--- a/WEB_FLASK/app/formulaire.xlsx
+++ b/WEB_FLASK/app/formulaire.xlsx
@@ -1540,7 +1540,7 @@
       <c r="G2" s="112" t="n"/>
       <c r="H2" s="114" t="inlineStr">
         <is>
-          <t>indice 1          date création : 18/03/2025</t>
+          <t>indice 1          date création : 19/03/2025</t>
         </is>
       </c>
       <c r="I2" s="111" t="n"/>
@@ -1667,7 +1667,7 @@
       <c r="G5" s="132" t="n"/>
       <c r="H5" s="133" t="inlineStr">
         <is>
-          <t>101337</t>
+          <t>102530</t>
         </is>
       </c>
       <c r="I5" s="134" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G6" s="132" t="n"/>
       <c r="H6" s="139" t="inlineStr">
         <is>
-          <t>Stephan Gabin</t>
+          <t>Meunier Malo</t>
         </is>
       </c>
       <c r="I6" s="126" t="n"/>
@@ -1733,7 +1733,7 @@
       <c r="X6" s="127" t="n"/>
       <c r="AA6" s="140" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="AB6" s="141" t="n"/>
@@ -1757,7 +1757,7 @@
       <c r="G7" s="132" t="n"/>
       <c r="H7" s="143" t="inlineStr">
         <is>
-          <t>2 rue de la ligue 1, 42000, Saint-Etienne</t>
+          <t>2 rue de la pompote, 35600, Moncuq</t>
         </is>
       </c>
       <c r="I7" s="134" t="n"/>
@@ -2186,7 +2186,7 @@
       <c r="E17" s="129" t="n"/>
       <c r="F17" s="170" t="inlineStr">
         <is>
-          <t>12/12/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="G17" s="126" t="n"/>
@@ -2214,7 +2214,7 @@
       <c r="X17" s="134" t="n"/>
       <c r="Y17" s="172" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>23/03/2025</t>
         </is>
       </c>
       <c r="Z17" s="126" t="n"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="I18" s="169" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>fanuc</t>
         </is>
       </c>
       <c r="J18" s="141" t="n"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="N34" s="205" t="inlineStr">
         <is>
-          <t>OL069FC</t>
+          <t>BR123PA</t>
         </is>
       </c>
       <c r="O34" s="145" t="n"/>
@@ -2995,7 +2995,7 @@
       <c r="AA47" s="215" t="n"/>
       <c r="AB47" s="215" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="AC47" s="215" t="n"/>

--- a/WEB_FLASK/app/formulaire.xlsx
+++ b/WEB_FLASK/app/formulaire.xlsx
@@ -1645,7 +1645,7 @@
       <c r="AB4" s="124" t="n"/>
       <c r="AC4" s="125" t="inlineStr">
         <is>
-          <t>A45412</t>
+          <t>A10103</t>
         </is>
       </c>
       <c r="AD4" s="126" t="n"/>
@@ -1667,7 +1667,7 @@
       <c r="G5" s="132" t="n"/>
       <c r="H5" s="133" t="inlineStr">
         <is>
-          <t>102530</t>
+          <t>101337</t>
         </is>
       </c>
       <c r="I5" s="134" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G6" s="132" t="n"/>
       <c r="H6" s="139" t="inlineStr">
         <is>
-          <t>Meunier Malo</t>
+          <t>Stephan Gabin</t>
         </is>
       </c>
       <c r="I6" s="126" t="n"/>
@@ -1757,7 +1757,7 @@
       <c r="G7" s="132" t="n"/>
       <c r="H7" s="143" t="inlineStr">
         <is>
-          <t>2 rue de la pompote, 35600, Moncuq</t>
+          <t>2 rue de la ligue 1, 42000, Amiens</t>
         </is>
       </c>
       <c r="I7" s="134" t="n"/>
@@ -1860,7 +1860,7 @@
       <c r="C10" s="129" t="n"/>
       <c r="D10" s="152" t="inlineStr">
         <is>
-          <t>ARSN</t>
+          <t>Segula</t>
         </is>
       </c>
       <c r="E10" s="126" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="C11" s="151" t="n"/>
       <c r="D11" s="155" t="inlineStr">
         <is>
-          <t>A45412</t>
+          <t>A10103</t>
         </is>
       </c>
       <c r="E11" s="126" t="n"/>
@@ -1972,7 +1972,7 @@
       <c r="D12" s="158" t="n"/>
       <c r="E12" s="159" t="inlineStr">
         <is>
-          <t>Stellantis Rennes</t>
+          <t>Renault Douai</t>
         </is>
       </c>
       <c r="F12" s="160" t="n"/>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="X12" s="159" t="inlineStr">
         <is>
-          <t>Gaubert Kilian</t>
+          <t>Dupas Melvyn</t>
         </is>
       </c>
       <c r="Y12" s="160" t="n"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="S14" s="167" t="inlineStr">
         <is>
-          <t>0607080904</t>
+          <t>0606060607</t>
         </is>
       </c>
       <c r="T14" s="164" t="n"/>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="AA14" s="169" t="inlineStr">
         <is>
-          <t>kilian.gaubert@arsn.com</t>
+          <t>melvyn.dupas@segula.fr</t>
         </is>
       </c>
       <c r="AB14" s="164" t="n"/>
@@ -2186,7 +2186,7 @@
       <c r="E17" s="129" t="n"/>
       <c r="F17" s="170" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="G17" s="126" t="n"/>
@@ -2214,7 +2214,7 @@
       <c r="X17" s="134" t="n"/>
       <c r="Y17" s="172" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="Z17" s="126" t="n"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="I18" s="169" t="inlineStr">
         <is>
-          <t>fanuc</t>
+          <t>yyy</t>
         </is>
       </c>
       <c r="J18" s="141" t="n"/>
@@ -2299,6 +2299,11 @@
     </row>
     <row r="20" ht="13.9" customHeight="1" s="148">
       <c r="A20" s="162" t="n"/>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>Zone B</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="18" customHeight="1" s="148">
       <c r="A21" s="174" t="inlineStr">
@@ -2641,7 +2646,7 @@
       </c>
       <c r="N34" s="205" t="inlineStr">
         <is>
-          <t>BR123PA</t>
+          <t>OL069FC</t>
         </is>
       </c>
       <c r="O34" s="145" t="n"/>

--- a/WEB_FLASK/app/formulaire.xlsx
+++ b/WEB_FLASK/app/formulaire.xlsx
@@ -1540,7 +1540,7 @@
       <c r="G2" s="112" t="n"/>
       <c r="H2" s="114" t="inlineStr">
         <is>
-          <t>indice 1          date création : 19/03/2025</t>
+          <t>indice 1          date création : 20/03/2025</t>
         </is>
       </c>
       <c r="I2" s="111" t="n"/>
@@ -1645,7 +1645,7 @@
       <c r="AB4" s="124" t="n"/>
       <c r="AC4" s="125" t="inlineStr">
         <is>
-          <t>A10103</t>
+          <t>A0526</t>
         </is>
       </c>
       <c r="AD4" s="126" t="n"/>
@@ -1667,7 +1667,7 @@
       <c r="G5" s="132" t="n"/>
       <c r="H5" s="133" t="inlineStr">
         <is>
-          <t>101337</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="I5" s="134" t="n"/>
@@ -1712,7 +1712,7 @@
       <c r="G6" s="132" t="n"/>
       <c r="H6" s="139" t="inlineStr">
         <is>
-          <t>Stephan Gabin</t>
+          <t>sfsd dsfsdf</t>
         </is>
       </c>
       <c r="I6" s="126" t="n"/>
@@ -1733,7 +1733,7 @@
       <c r="X6" s="127" t="n"/>
       <c r="AA6" s="140" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="AB6" s="141" t="n"/>
@@ -1757,7 +1757,7 @@
       <c r="G7" s="132" t="n"/>
       <c r="H7" s="143" t="inlineStr">
         <is>
-          <t>2 rue de la ligue 1, 42000, Amiens</t>
+          <t>sdfsdf, 45645, ppppppppppppppppppppp</t>
         </is>
       </c>
       <c r="I7" s="134" t="n"/>
@@ -1860,7 +1860,7 @@
       <c r="C10" s="129" t="n"/>
       <c r="D10" s="152" t="inlineStr">
         <is>
-          <t>Segula</t>
+          <t>Kuka</t>
         </is>
       </c>
       <c r="E10" s="126" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="C11" s="151" t="n"/>
       <c r="D11" s="155" t="inlineStr">
         <is>
-          <t>A10103</t>
+          <t>A0526</t>
         </is>
       </c>
       <c r="E11" s="126" t="n"/>
@@ -1972,7 +1972,7 @@
       <c r="D12" s="158" t="n"/>
       <c r="E12" s="159" t="inlineStr">
         <is>
-          <t>Renault Douai</t>
+          <t>Stellantis Rennes</t>
         </is>
       </c>
       <c r="F12" s="160" t="n"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="S14" s="167" t="inlineStr">
         <is>
-          <t>0606060607</t>
+          <t>0606060608</t>
         </is>
       </c>
       <c r="T14" s="164" t="n"/>
@@ -2186,7 +2186,7 @@
       <c r="E17" s="129" t="n"/>
       <c r="F17" s="170" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>31/05/4355</t>
         </is>
       </c>
       <c r="G17" s="126" t="n"/>
@@ -2214,7 +2214,7 @@
       <c r="X17" s="134" t="n"/>
       <c r="Y17" s="172" t="inlineStr">
         <is>
-          <t>28/03/2025</t>
+          <t>15/12/315</t>
         </is>
       </c>
       <c r="Z17" s="126" t="n"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="I18" s="169" t="inlineStr">
         <is>
-          <t>yyy</t>
+          <t>5445</t>
         </is>
       </c>
       <c r="J18" s="141" t="n"/>
@@ -2301,7 +2301,7 @@
       <c r="A20" s="162" t="n"/>
       <c r="P20" s="0" t="inlineStr">
         <is>
-          <t>Zone B</t>
+          <t>Erreur de calcul</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="N34" s="205" t="inlineStr">
         <is>
-          <t>OL069FC</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="O34" s="145" t="n"/>
@@ -3000,7 +3000,7 @@
       <c r="AA47" s="215" t="n"/>
       <c r="AB47" s="215" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="AC47" s="215" t="n"/>

--- a/WEB_FLASK/app/formulaire.xlsx
+++ b/WEB_FLASK/app/formulaire.xlsx
@@ -378,7 +378,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -493,9 +493,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -901,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -1146,9 +1149,9 @@
     </from>
     <to>
       <col>31</col>
-      <colOff>18000</colOff>
+      <colOff>17640</colOff>
       <row>1</row>
-      <rowOff>151560</rowOff>
+      <rowOff>151200</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -1165,7 +1168,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="8397360" y="38160"/>
-          <a:ext cx="1010160" cy="417960"/>
+          <a:ext cx="1009800" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -1468,12 +1471,12 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW20" activeCellId="0" sqref="AW20"/>
+      <selection pane="topLeft" activeCell="BV17" activeCellId="0" sqref="BV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="2.71484375" defaultRowHeight="13.9" zeroHeight="0" outlineLevelRow="0"/>
@@ -1526,7 +1529,7 @@
       <c r="AF1" s="111" t="n"/>
       <c r="AG1" s="112" t="n"/>
     </row>
-    <row r="2" ht="24" customFormat="1" customHeight="1" s="105">
+    <row r="2" ht="47" customFormat="1" customHeight="1" s="105">
       <c r="A2" s="113" t="inlineStr">
         <is>
           <t>IND PS1 - F 004</t>
@@ -1540,7 +1543,7 @@
       <c r="G2" s="112" t="n"/>
       <c r="H2" s="114" t="inlineStr">
         <is>
-          <t>indice 1          date création : 20/03/2025</t>
+          <t>indice 1          date création : 21/03/2025</t>
         </is>
       </c>
       <c r="I2" s="111" t="n"/>
@@ -1667,7 +1670,7 @@
       <c r="G5" s="132" t="n"/>
       <c r="H5" s="133" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
+          <t>102530</t>
         </is>
       </c>
       <c r="I5" s="134" t="n"/>
@@ -1712,7 +1715,7 @@
       <c r="G6" s="132" t="n"/>
       <c r="H6" s="139" t="inlineStr">
         <is>
-          <t>sfsd dsfsdf</t>
+          <t>Meunier Malo</t>
         </is>
       </c>
       <c r="I6" s="126" t="n"/>
@@ -1733,7 +1736,7 @@
       <c r="X6" s="127" t="n"/>
       <c r="AA6" s="140" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="AB6" s="141" t="n"/>
@@ -1757,7 +1760,7 @@
       <c r="G7" s="132" t="n"/>
       <c r="H7" s="143" t="inlineStr">
         <is>
-          <t>sdfsdf, 45645, ppppppppppppppppppppp</t>
+          <t>2 rue de la pompote, 35600, Meymac</t>
         </is>
       </c>
       <c r="I7" s="134" t="n"/>
@@ -1850,7 +1853,7 @@
       <c r="Y9" s="149" t="n"/>
       <c r="AC9" s="150" t="n"/>
     </row>
-    <row r="10" ht="13.9" customHeight="1" s="148">
+    <row r="10" ht="21.6" customHeight="1" s="148">
       <c r="A10" s="151" t="inlineStr">
         <is>
           <t>Client :</t>
@@ -1888,7 +1891,7 @@
       <c r="V10" s="134" t="n"/>
       <c r="W10" s="154" t="inlineStr">
         <is>
-          <t>David Nisoli</t>
+          <t>Rémi Coppin</t>
         </is>
       </c>
       <c r="X10" s="126" t="n"/>
@@ -1939,7 +1942,7 @@
       <c r="V11" s="129" t="n"/>
       <c r="W11" s="130" t="inlineStr">
         <is>
-          <t>david.nisoli@spie.com</t>
+          <t>rémi.coppin@spie.com</t>
         </is>
       </c>
       <c r="X11" s="134" t="n"/>
@@ -1954,7 +1957,7 @@
       </c>
       <c r="AD11" s="156" t="inlineStr">
         <is>
-          <t>0607070708</t>
+          <t>0706060707</t>
         </is>
       </c>
       <c r="AE11" s="134" t="n"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="S14" s="167" t="inlineStr">
         <is>
-          <t>0606060608</t>
+          <t>0606060607</t>
         </is>
       </c>
       <c r="T14" s="164" t="n"/>
@@ -2186,7 +2189,7 @@
       <c r="E17" s="129" t="n"/>
       <c r="F17" s="170" t="inlineStr">
         <is>
-          <t>31/05/4355</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="G17" s="126" t="n"/>
@@ -2214,7 +2217,7 @@
       <c r="X17" s="134" t="n"/>
       <c r="Y17" s="172" t="inlineStr">
         <is>
-          <t>15/12/315</t>
+          <t>05/01/2025</t>
         </is>
       </c>
       <c r="Z17" s="126" t="n"/>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="I18" s="169" t="inlineStr">
         <is>
-          <t>5445</t>
+          <t>df</t>
         </is>
       </c>
       <c r="J18" s="141" t="n"/>
@@ -2299,14 +2302,14 @@
     </row>
     <row r="20" ht="13.9" customHeight="1" s="148">
       <c r="A20" s="162" t="n"/>
-      <c r="P20" s="0" t="inlineStr">
-        <is>
-          <t>Erreur de calcul</t>
+      <c r="P20" s="174" t="inlineStr">
+        <is>
+          <t>Grand déplacement</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" s="148">
-      <c r="A21" s="174" t="inlineStr">
+      <c r="A21" s="175" t="inlineStr">
         <is>
           <t>Conditions de grand déplacement</t>
         </is>
@@ -2331,7 +2334,7 @@
     <row r="22" ht="13.9" customHeight="1" s="148">
       <c r="A22" s="157" t="n"/>
       <c r="B22" s="158" t="n"/>
-      <c r="C22" s="175" t="inlineStr">
+      <c r="C22" s="176" t="inlineStr">
         <is>
           <t>Remboursement des frais engagés sur justificatifs par note de frais :</t>
         </is>
@@ -2361,7 +2364,7 @@
       <c r="V22" s="158" t="n"/>
       <c r="W22" s="158" t="n"/>
       <c r="X22" s="158" t="n"/>
-      <c r="Y22" s="176" t="n"/>
+      <c r="Y22" s="177" t="n"/>
       <c r="Z22" s="126" t="n"/>
       <c r="AA22" s="158" t="inlineStr">
         <is>
@@ -2377,16 +2380,16 @@
       <c r="AD22" s="158" t="n"/>
       <c r="AE22" s="158" t="n"/>
       <c r="AF22" s="158" t="n"/>
-      <c r="AG22" s="177" t="n"/>
+      <c r="AG22" s="178" t="n"/>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="148">
       <c r="A23" s="162" t="n"/>
-      <c r="C23" s="178" t="inlineStr">
+      <c r="C23" s="179" t="inlineStr">
         <is>
           <t>(dans ce cas pas de versement d'IGD)</t>
         </is>
       </c>
-      <c r="AG23" s="179" t="n"/>
+      <c r="AG23" s="180" t="n"/>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="148">
       <c r="A24" s="157" t="n"/>
@@ -2421,52 +2424,52 @@
       <c r="AD24" s="158" t="n"/>
       <c r="AE24" s="158" t="n"/>
       <c r="AF24" s="158" t="n"/>
-      <c r="AG24" s="180" t="n"/>
-    </row>
-    <row r="25" ht="13.9" customHeight="1" s="148">
+      <c r="AG24" s="181" t="n"/>
+    </row>
+    <row r="25" ht="25.35" customHeight="1" s="148">
       <c r="A25" s="162" t="n"/>
-      <c r="C25" s="181" t="inlineStr">
+      <c r="C25" s="182" t="inlineStr">
         <is>
           <t xml:space="preserve">Indemnités de déplacement (IGD) : </t>
         </is>
       </c>
-      <c r="O25" s="182" t="n"/>
+      <c r="O25" s="183" t="n"/>
       <c r="S25" s="118" t="inlineStr">
         <is>
           <t>Heures de Route : 
 Via Michelin, le + rapide</t>
         </is>
       </c>
-      <c r="W25" s="183" t="inlineStr">
+      <c r="W25" s="184" t="inlineStr">
         <is>
           <t>(n'est pas du temps de travail effectif et effectué en dehors des heures de travail - Payées à 50% - A indiquer dans le RHI)</t>
         </is>
       </c>
-      <c r="AG25" s="184" t="n"/>
-    </row>
-    <row r="26" ht="13.9" customHeight="1" s="148">
+      <c r="AG25" s="185" t="n"/>
+    </row>
+    <row r="26" ht="31.3" customHeight="1" s="148">
       <c r="A26" s="162" t="n"/>
-      <c r="C26" s="185" t="inlineStr">
+      <c r="C26" s="186" t="inlineStr">
         <is>
           <t xml:space="preserve">Valeur selon barème en vigueur : 110 € / jour et 20€70 le jour du retour 
 (une partie de ce montant est soumis à charges sociales et la base de cotisation évolue au bout de 3 mois sur un même site) </t>
         </is>
       </c>
-      <c r="S26" s="186" t="inlineStr">
+      <c r="S26" s="187" t="inlineStr">
         <is>
           <t>pour le 1er et dernier trajet encadrant la
 mission et pour les retours périodiques :</t>
         </is>
       </c>
-      <c r="AA26" s="187" t="n"/>
+      <c r="AA26" s="188" t="n"/>
       <c r="AB26" s="164" t="n"/>
-      <c r="AC26" s="188" t="inlineStr">
+      <c r="AC26" s="189" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="AG26" s="189" t="n"/>
-      <c r="AH26" s="190" t="n"/>
+      <c r="AG26" s="190" t="n"/>
+      <c r="AH26" s="191" t="n"/>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="148">
       <c r="A27" s="162" t="n"/>
@@ -2475,18 +2478,18 @@
           <t>Conditions dérogatoires sur le montant de l'IGD :</t>
         </is>
       </c>
-      <c r="S27" s="186" t="n"/>
-      <c r="AD27" s="188" t="n"/>
-      <c r="AG27" s="189" t="n"/>
+      <c r="S27" s="187" t="n"/>
+      <c r="AD27" s="189" t="n"/>
+      <c r="AG27" s="190" t="n"/>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="148">
       <c r="A28" s="162" t="n"/>
-      <c r="D28" s="191" t="inlineStr">
+      <c r="D28" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">Justification obligatoire : </t>
         </is>
       </c>
-      <c r="E28" s="191" t="n"/>
+      <c r="E28" s="192" t="n"/>
       <c r="I28" s="167" t="n"/>
       <c r="J28" s="164" t="n"/>
       <c r="K28" s="164" t="n"/>
@@ -2495,19 +2498,19 @@
       <c r="N28" s="164" t="n"/>
       <c r="O28" s="164" t="n"/>
       <c r="P28" s="164" t="n"/>
-      <c r="S28" s="192" t="inlineStr">
+      <c r="S28" s="193" t="inlineStr">
         <is>
           <t xml:space="preserve">Retours périodiques : </t>
         </is>
       </c>
-      <c r="T28" s="193" t="n"/>
-      <c r="U28" s="193" t="n"/>
-      <c r="V28" s="194" t="n"/>
-      <c r="W28" s="194" t="n"/>
+      <c r="T28" s="194" t="n"/>
+      <c r="U28" s="194" t="n"/>
+      <c r="V28" s="195" t="n"/>
+      <c r="W28" s="195" t="n"/>
       <c r="Y28" s="149" t="n"/>
       <c r="Z28" s="149" t="n"/>
       <c r="AA28" s="149" t="n"/>
-      <c r="AG28" s="189" t="n"/>
+      <c r="AG28" s="190" t="n"/>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="148">
       <c r="A29" s="162" t="n"/>
@@ -2516,72 +2519,72 @@
           <t xml:space="preserve">Montant indemnité : </t>
         </is>
       </c>
-      <c r="I29" s="176" t="n"/>
+      <c r="I29" s="177" t="n"/>
       <c r="J29" s="126" t="n"/>
       <c r="K29" s="104" t="inlineStr">
         <is>
           <t>€ / jour (et 20€70 jour du retour)</t>
         </is>
       </c>
-      <c r="O29" s="191" t="n"/>
+      <c r="O29" s="192" t="n"/>
       <c r="T29" s="104" t="inlineStr">
         <is>
           <t>toutes les semaines</t>
         </is>
       </c>
-      <c r="U29" s="193" t="n"/>
-      <c r="V29" s="193" t="n"/>
-      <c r="W29" s="193" t="n"/>
-      <c r="AA29" s="194" t="n"/>
-      <c r="AB29" s="194" t="n"/>
-      <c r="AC29" s="194" t="n"/>
-      <c r="AD29" s="194" t="n"/>
-      <c r="AE29" s="194" t="n"/>
-      <c r="AF29" s="194" t="n"/>
-      <c r="AG29" s="195" t="n"/>
+      <c r="U29" s="194" t="n"/>
+      <c r="V29" s="194" t="n"/>
+      <c r="W29" s="194" t="n"/>
+      <c r="AA29" s="195" t="n"/>
+      <c r="AB29" s="195" t="n"/>
+      <c r="AC29" s="195" t="n"/>
+      <c r="AD29" s="195" t="n"/>
+      <c r="AE29" s="195" t="n"/>
+      <c r="AF29" s="195" t="n"/>
+      <c r="AG29" s="196" t="n"/>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="148">
       <c r="A30" s="162" t="n"/>
-      <c r="C30" s="196" t="inlineStr">
+      <c r="C30" s="197" t="inlineStr">
         <is>
           <t>Rappel : Un justificatif d'hébergement doit être joint à chaque RHI.</t>
         </is>
       </c>
-      <c r="P30" s="197" t="n"/>
-      <c r="Q30" s="197" t="n"/>
-      <c r="R30" s="197" t="n"/>
+      <c r="P30" s="198" t="n"/>
+      <c r="Q30" s="198" t="n"/>
+      <c r="R30" s="198" t="n"/>
       <c r="T30" s="104" t="inlineStr">
         <is>
           <t>toutes les</t>
         </is>
       </c>
-      <c r="U30" s="193" t="n"/>
-      <c r="V30" s="198" t="n"/>
-      <c r="W30" s="199" t="inlineStr">
+      <c r="U30" s="194" t="n"/>
+      <c r="V30" s="199" t="n"/>
+      <c r="W30" s="200" t="inlineStr">
         <is>
           <t>semaines</t>
         </is>
       </c>
-      <c r="AA30" s="193" t="n"/>
-      <c r="AB30" s="193" t="n"/>
-      <c r="AC30" s="193" t="n"/>
-      <c r="AD30" s="193" t="n"/>
-      <c r="AE30" s="193" t="n"/>
-      <c r="AG30" s="200" t="n"/>
+      <c r="AA30" s="194" t="n"/>
+      <c r="AB30" s="194" t="n"/>
+      <c r="AC30" s="194" t="n"/>
+      <c r="AD30" s="194" t="n"/>
+      <c r="AE30" s="194" t="n"/>
+      <c r="AG30" s="201" t="n"/>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="148">
       <c r="A31" s="162" t="n"/>
-      <c r="B31" s="201" t="inlineStr">
+      <c r="B31" s="202" t="inlineStr">
         <is>
           <t>Transport utilisé</t>
         </is>
       </c>
-      <c r="AA31" s="193" t="n"/>
-      <c r="AB31" s="193" t="n"/>
-      <c r="AC31" s="193" t="n"/>
-      <c r="AD31" s="193" t="n"/>
-      <c r="AE31" s="193" t="n"/>
-      <c r="AG31" s="200" t="n"/>
+      <c r="AA31" s="194" t="n"/>
+      <c r="AB31" s="194" t="n"/>
+      <c r="AC31" s="194" t="n"/>
+      <c r="AD31" s="194" t="n"/>
+      <c r="AE31" s="194" t="n"/>
+      <c r="AG31" s="201" t="n"/>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="148">
       <c r="A32" s="162" t="n"/>
@@ -2590,21 +2593,21 @@
           <t xml:space="preserve">Vous utilisez votre propre véhicule </t>
         </is>
       </c>
-      <c r="D32" s="202" t="n"/>
-      <c r="E32" s="202" t="n"/>
-      <c r="F32" s="202" t="n"/>
-      <c r="G32" s="202" t="n"/>
-      <c r="H32" s="202" t="n"/>
-      <c r="I32" s="202" t="n"/>
-      <c r="J32" s="202" t="n"/>
-      <c r="K32" s="202" t="n"/>
-      <c r="L32" s="202" t="n"/>
-      <c r="M32" s="202" t="n"/>
-      <c r="N32" s="202" t="n"/>
-      <c r="O32" s="202" t="n"/>
-      <c r="P32" s="202" t="n"/>
-      <c r="Q32" s="202" t="n"/>
-      <c r="R32" s="202" t="n"/>
+      <c r="D32" s="203" t="n"/>
+      <c r="E32" s="203" t="n"/>
+      <c r="F32" s="203" t="n"/>
+      <c r="G32" s="203" t="n"/>
+      <c r="H32" s="203" t="n"/>
+      <c r="I32" s="203" t="n"/>
+      <c r="J32" s="203" t="n"/>
+      <c r="K32" s="203" t="n"/>
+      <c r="L32" s="203" t="n"/>
+      <c r="M32" s="203" t="n"/>
+      <c r="N32" s="203" t="n"/>
+      <c r="O32" s="203" t="n"/>
+      <c r="P32" s="203" t="n"/>
+      <c r="Q32" s="203" t="n"/>
+      <c r="R32" s="203" t="n"/>
       <c r="S32" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve">Distance Domicile / Chantier : </t>
@@ -2622,20 +2625,20 @@
           <t>(Si véhicule personnel)</t>
         </is>
       </c>
-      <c r="AG32" s="203" t="n"/>
+      <c r="AG32" s="204" t="n"/>
     </row>
     <row r="33" ht="21.6" customHeight="1" s="148">
       <c r="A33" s="162" t="n"/>
-      <c r="C33" s="204" t="inlineStr">
+      <c r="C33" s="205" t="inlineStr">
         <is>
           <t>(remboursement des IK et péages sur note de frais avec justificatifs - uniquement en grand déplacement et sur transmission de la copie de votre carte grise)</t>
         </is>
       </c>
-      <c r="R33" s="202" t="n"/>
-      <c r="S33" s="202" t="n"/>
-      <c r="T33" s="202" t="n"/>
-      <c r="U33" s="202" t="n"/>
-      <c r="AG33" s="189" t="n"/>
+      <c r="R33" s="203" t="n"/>
+      <c r="S33" s="203" t="n"/>
+      <c r="T33" s="203" t="n"/>
+      <c r="U33" s="203" t="n"/>
+      <c r="AG33" s="190" t="n"/>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="148">
       <c r="A34" s="162" t="n"/>
@@ -2644,27 +2647,27 @@
           <t>Vous roulez avec un véhicule de société / immatriculation :</t>
         </is>
       </c>
-      <c r="N34" s="205" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
+      <c r="N34" s="206" t="inlineStr">
+        <is>
+          <t>BR123PA</t>
         </is>
       </c>
       <c r="O34" s="145" t="n"/>
       <c r="P34" s="145" t="n"/>
-      <c r="AG34" s="189" t="n"/>
+      <c r="AG34" s="190" t="n"/>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="148">
       <c r="A35" s="162" t="n"/>
-      <c r="C35" s="191" t="inlineStr">
+      <c r="C35" s="192" t="inlineStr">
         <is>
           <t xml:space="preserve">Vous serez transporté par : </t>
         </is>
       </c>
-      <c r="D35" s="191" t="n"/>
-      <c r="E35" s="191" t="n"/>
-      <c r="F35" s="191" t="n"/>
-      <c r="G35" s="191" t="n"/>
-      <c r="H35" s="191" t="n"/>
+      <c r="D35" s="192" t="n"/>
+      <c r="E35" s="192" t="n"/>
+      <c r="F35" s="192" t="n"/>
+      <c r="G35" s="192" t="n"/>
+      <c r="H35" s="192" t="n"/>
       <c r="I35" s="167" t="n"/>
       <c r="J35" s="164" t="n"/>
       <c r="K35" s="164" t="n"/>
@@ -2673,7 +2676,7 @@
       <c r="N35" s="164" t="n"/>
       <c r="O35" s="164" t="n"/>
       <c r="P35" s="164" t="n"/>
-      <c r="AG35" s="189" t="n"/>
+      <c r="AG35" s="190" t="n"/>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="148">
       <c r="A36" s="166" t="n"/>
@@ -2708,20 +2711,20 @@
       <c r="AD36" s="168" t="n"/>
       <c r="AE36" s="168" t="n"/>
       <c r="AF36" s="168" t="n"/>
-      <c r="AG36" s="206" t="n"/>
+      <c r="AG36" s="207" t="n"/>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="148">
-      <c r="A37" s="207" t="inlineStr">
+      <c r="A37" s="208" t="inlineStr">
         <is>
           <t>Horaires de travail :</t>
         </is>
       </c>
-      <c r="S37" s="175" t="inlineStr">
+      <c r="S37" s="176" t="inlineStr">
         <is>
           <t>Conditions spécifiques liées au chantier :</t>
         </is>
       </c>
-      <c r="AG37" s="189" t="n"/>
+      <c r="AG37" s="190" t="n"/>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="148">
       <c r="A38" s="162" t="n"/>
@@ -2735,7 +2738,7 @@
           <t>Travail le dimanche</t>
         </is>
       </c>
-      <c r="AG38" s="189" t="n"/>
+      <c r="AG38" s="190" t="n"/>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="148">
       <c r="A39" s="162" t="n"/>
@@ -2749,8 +2752,8 @@
           <t>Travail posté : 2x8, 3x8, …</t>
         </is>
       </c>
-      <c r="O39" s="192" t="n"/>
-      <c r="AG39" s="189" t="n"/>
+      <c r="O39" s="193" t="n"/>
+      <c r="AG39" s="190" t="n"/>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="148">
       <c r="A40" s="162" t="n"/>
@@ -2762,15 +2765,15 @@
       <c r="M40" s="167" t="n"/>
       <c r="N40" s="164" t="n"/>
       <c r="O40" s="164" t="n"/>
-      <c r="AG40" s="189" t="n"/>
+      <c r="AG40" s="190" t="n"/>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="148">
-      <c r="A41" s="207" t="inlineStr">
+      <c r="A41" s="208" t="inlineStr">
         <is>
           <t>Pièces et matériel à présenter :</t>
         </is>
       </c>
-      <c r="AG41" s="189" t="n"/>
+      <c r="AG41" s="190" t="n"/>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="148">
       <c r="A42" s="173" t="n"/>
@@ -2860,7 +2863,7 @@
       <c r="AG44" s="165" t="n"/>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="148">
-      <c r="A45" s="208" t="inlineStr">
+      <c r="A45" s="209" t="inlineStr">
         <is>
           <t>Validation et diffusion :</t>
         </is>
@@ -2896,10 +2899,10 @@
       <c r="AD45" s="129" t="n"/>
       <c r="AE45" s="129" t="n"/>
       <c r="AF45" s="129" t="n"/>
-      <c r="AG45" s="209" t="n"/>
-    </row>
-    <row r="46" ht="13.9" customHeight="1" s="148">
-      <c r="A46" s="210" t="inlineStr">
+      <c r="AG45" s="210" t="n"/>
+    </row>
+    <row r="46" ht="23.85" customHeight="1" s="148">
+      <c r="A46" s="211" t="inlineStr">
         <is>
           <t>1. Visa Sup. Hiérarchique
  ou Resp. ressources chantier</t>
@@ -2913,7 +2916,7 @@
       <c r="G46" s="134" t="n"/>
       <c r="H46" s="134" t="n"/>
       <c r="I46" s="135" t="n"/>
-      <c r="J46" s="211" t="inlineStr">
+      <c r="J46" s="212" t="inlineStr">
         <is>
           <t>2. Visa Chef de département / Service</t>
         </is>
@@ -2925,7 +2928,7 @@
       <c r="O46" s="134" t="n"/>
       <c r="P46" s="134" t="n"/>
       <c r="Q46" s="135" t="n"/>
-      <c r="R46" s="210" t="inlineStr">
+      <c r="R46" s="211" t="inlineStr">
         <is>
           <t>3. Visa CRH / RRH 
 (En cas de conditions dérogatoires)</t>
@@ -2938,7 +2941,7 @@
       <c r="W46" s="134" t="n"/>
       <c r="X46" s="134" t="n"/>
       <c r="Y46" s="135" t="n"/>
-      <c r="Z46" s="211" t="inlineStr">
+      <c r="Z46" s="212" t="inlineStr">
         <is>
           <t>4. Visa du salarié</t>
         </is>
@@ -2957,9 +2960,9 @@
           <t>Date :</t>
         </is>
       </c>
-      <c r="B47" s="212" t="n"/>
-      <c r="C47" s="212" t="n"/>
-      <c r="D47" s="213">
+      <c r="B47" s="213" t="n"/>
+      <c r="C47" s="213" t="n"/>
+      <c r="D47" s="214">
         <f>TODAY()</f>
         <v/>
       </c>
@@ -2973,41 +2976,41 @@
           <t>Date :</t>
         </is>
       </c>
-      <c r="K47" s="212" t="n"/>
+      <c r="K47" s="213" t="n"/>
       <c r="L47" s="158" t="n"/>
-      <c r="M47" s="212" t="n"/>
-      <c r="N47" s="212" t="n"/>
-      <c r="O47" s="212" t="n"/>
-      <c r="P47" s="212" t="n"/>
-      <c r="Q47" s="214" t="n"/>
+      <c r="M47" s="213" t="n"/>
+      <c r="N47" s="213" t="n"/>
+      <c r="O47" s="213" t="n"/>
+      <c r="P47" s="213" t="n"/>
+      <c r="Q47" s="215" t="n"/>
       <c r="R47" s="157" t="inlineStr">
         <is>
           <t>Date :</t>
         </is>
       </c>
-      <c r="S47" s="212" t="n"/>
-      <c r="T47" s="212" t="n"/>
-      <c r="U47" s="212" t="n"/>
-      <c r="V47" s="212" t="n"/>
+      <c r="S47" s="213" t="n"/>
+      <c r="T47" s="213" t="n"/>
+      <c r="U47" s="213" t="n"/>
+      <c r="V47" s="213" t="n"/>
       <c r="W47" s="158" t="n"/>
-      <c r="X47" s="215" t="n"/>
-      <c r="Y47" s="216" t="n"/>
+      <c r="X47" s="216" t="n"/>
+      <c r="Y47" s="217" t="n"/>
       <c r="Z47" s="104" t="inlineStr">
         <is>
           <t>Date :</t>
         </is>
       </c>
-      <c r="AA47" s="215" t="n"/>
-      <c r="AB47" s="215" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="AC47" s="215" t="n"/>
-      <c r="AD47" s="215" t="n"/>
-      <c r="AE47" s="215" t="n"/>
-      <c r="AF47" s="215" t="n"/>
-      <c r="AG47" s="216" t="n"/>
+      <c r="AA47" s="216" t="n"/>
+      <c r="AB47" s="216" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="AC47" s="216" t="n"/>
+      <c r="AD47" s="216" t="n"/>
+      <c r="AE47" s="216" t="n"/>
+      <c r="AF47" s="216" t="n"/>
+      <c r="AG47" s="217" t="n"/>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="148">
       <c r="A48" s="162" t="inlineStr">
@@ -3015,36 +3018,36 @@
           <t>Nom Prénom :</t>
         </is>
       </c>
-      <c r="B48" s="217" t="n"/>
-      <c r="C48" s="217" t="n"/>
-      <c r="D48" s="218">
+      <c r="B48" s="218" t="n"/>
+      <c r="C48" s="218" t="n"/>
+      <c r="D48" s="219">
         <f>responsable</f>
         <v/>
       </c>
-      <c r="I48" s="184" t="n"/>
+      <c r="I48" s="185" t="n"/>
       <c r="J48" s="162" t="inlineStr">
         <is>
           <t>Nom Prénom :</t>
         </is>
       </c>
-      <c r="K48" s="217" t="n"/>
-      <c r="M48" s="217" t="n"/>
-      <c r="N48" s="217" t="n"/>
-      <c r="O48" s="217" t="n"/>
-      <c r="P48" s="217" t="n"/>
-      <c r="Q48" s="219" t="n"/>
+      <c r="K48" s="218" t="n"/>
+      <c r="M48" s="218" t="n"/>
+      <c r="N48" s="218" t="n"/>
+      <c r="O48" s="218" t="n"/>
+      <c r="P48" s="218" t="n"/>
+      <c r="Q48" s="220" t="n"/>
       <c r="R48" s="162" t="inlineStr">
         <is>
           <t>Nom Prénom :</t>
         </is>
       </c>
-      <c r="S48" s="217" t="n"/>
-      <c r="T48" s="217" t="n"/>
-      <c r="U48" s="217" t="n"/>
-      <c r="V48" s="217" t="n"/>
+      <c r="S48" s="218" t="n"/>
+      <c r="T48" s="218" t="n"/>
+      <c r="U48" s="218" t="n"/>
+      <c r="V48" s="218" t="n"/>
       <c r="W48" s="149" t="n"/>
       <c r="X48" s="149" t="n"/>
-      <c r="Y48" s="220" t="n"/>
+      <c r="Y48" s="221" t="n"/>
       <c r="Z48" s="162" t="inlineStr">
         <is>
           <t>Nom Prénom :</t>
@@ -3052,11 +3055,11 @@
       </c>
       <c r="AA48" s="149" t="n"/>
       <c r="AB48" s="149" t="n"/>
-      <c r="AC48" s="218">
+      <c r="AC48" s="219">
         <f>collaborateur</f>
         <v/>
       </c>
-      <c r="AG48" s="184" t="n"/>
+      <c r="AG48" s="185" t="n"/>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="148">
       <c r="A49" s="166" t="inlineStr">
@@ -3064,49 +3067,49 @@
           <t>Visa :</t>
         </is>
       </c>
-      <c r="B49" s="221" t="n"/>
-      <c r="C49" s="221" t="n"/>
-      <c r="D49" s="221" t="n"/>
-      <c r="E49" s="221" t="n"/>
-      <c r="F49" s="221" t="n"/>
-      <c r="G49" s="221" t="n"/>
-      <c r="H49" s="221" t="n"/>
-      <c r="I49" s="222" t="n"/>
+      <c r="B49" s="222" t="n"/>
+      <c r="C49" s="222" t="n"/>
+      <c r="D49" s="222" t="n"/>
+      <c r="E49" s="222" t="n"/>
+      <c r="F49" s="222" t="n"/>
+      <c r="G49" s="222" t="n"/>
+      <c r="H49" s="222" t="n"/>
+      <c r="I49" s="223" t="n"/>
       <c r="J49" s="166" t="inlineStr">
         <is>
           <t>Visa :</t>
         </is>
       </c>
-      <c r="K49" s="221" t="n"/>
+      <c r="K49" s="222" t="n"/>
       <c r="L49" s="168" t="n"/>
-      <c r="M49" s="221" t="n"/>
-      <c r="N49" s="221" t="n"/>
-      <c r="O49" s="221" t="n"/>
-      <c r="P49" s="221" t="n"/>
-      <c r="Q49" s="222" t="n"/>
+      <c r="M49" s="222" t="n"/>
+      <c r="N49" s="222" t="n"/>
+      <c r="O49" s="222" t="n"/>
+      <c r="P49" s="222" t="n"/>
+      <c r="Q49" s="223" t="n"/>
       <c r="R49" s="166" t="inlineStr">
         <is>
           <t>Visa :</t>
         </is>
       </c>
-      <c r="S49" s="221" t="n"/>
-      <c r="T49" s="221" t="n"/>
-      <c r="U49" s="221" t="n"/>
-      <c r="V49" s="221" t="n"/>
-      <c r="W49" s="223" t="n"/>
-      <c r="X49" s="223" t="n"/>
-      <c r="Y49" s="224" t="n"/>
-      <c r="Z49" s="223" t="n"/>
-      <c r="AA49" s="223" t="n"/>
-      <c r="AB49" s="223" t="n"/>
-      <c r="AC49" s="223" t="n"/>
-      <c r="AD49" s="223" t="n"/>
-      <c r="AE49" s="223" t="n"/>
-      <c r="AF49" s="223" t="n"/>
-      <c r="AG49" s="224" t="n"/>
+      <c r="S49" s="222" t="n"/>
+      <c r="T49" s="222" t="n"/>
+      <c r="U49" s="222" t="n"/>
+      <c r="V49" s="222" t="n"/>
+      <c r="W49" s="224" t="n"/>
+      <c r="X49" s="224" t="n"/>
+      <c r="Y49" s="225" t="n"/>
+      <c r="Z49" s="224" t="n"/>
+      <c r="AA49" s="224" t="n"/>
+      <c r="AB49" s="224" t="n"/>
+      <c r="AC49" s="224" t="n"/>
+      <c r="AD49" s="224" t="n"/>
+      <c r="AE49" s="224" t="n"/>
+      <c r="AF49" s="224" t="n"/>
+      <c r="AG49" s="225" t="n"/>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="148">
-      <c r="A50" s="225" t="inlineStr">
+      <c r="A50" s="226" t="inlineStr">
         <is>
           <t>4-Resp. hiérarchique ou resp. ressources chantier transmet une copie à la Gestionnaire d'activité qui le déposera sur répertoire partagé avec le CSPP</t>
         </is>
@@ -3144,8 +3147,8 @@
       <c r="AF50" s="134" t="n"/>
       <c r="AG50" s="135" t="n"/>
     </row>
-    <row r="51" ht="13.9" customHeight="1" s="148">
-      <c r="A51" s="226" t="inlineStr">
+    <row r="51" ht="23.85" customHeight="1" s="148">
+      <c r="A51" s="227" t="inlineStr">
         <is>
           <t>NOTA : si prêt de personnel à une autre entité: AG/DO/DA : à transmettre à l'utilisateur si prise en charge des frais
 Le lecteur s’assurera que cette révision est bien celle en vigueur, en consultant Docuware, ou auprès de son responsable hiérarchique</t>
@@ -3258,7 +3261,7 @@
   </dataValidations>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="55" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>